--- a/src/test/resources/ParticipantWithSameNameAndMobile.xlsx
+++ b/src/test/resources/ParticipantWithSameNameAndMobile.xlsx
@@ -63,6 +63,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
@@ -110,6 +111,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -426,6 +428,15 @@
     <t xml:space="preserve">English</t>
   </si>
   <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adam@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby</t>
+  </si>
+  <si>
     <t xml:space="preserve">John</t>
   </si>
   <si>
@@ -438,6 +449,15 @@
     <t xml:space="preserve">Java</t>
   </si>
   <si>
+    <t xml:space="preserve">Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smith@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mike</t>
   </si>
   <si>
@@ -445,24 +465,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smith@test.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adam@test.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby</t>
   </si>
   <si>
     <t xml:space="preserve">Maharashtra</t>
@@ -975,9 +977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1243080</xdr:colOff>
+      <xdr:colOff>1242720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1316880</xdr:rowOff>
+      <xdr:rowOff>1316520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -990,8 +992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981520" y="47520"/>
-          <a:ext cx="2195280" cy="1269360"/>
+          <a:off x="2962440" y="47520"/>
+          <a:ext cx="2175840" cy="1269000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,13 +1016,13 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A4:S4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,16 +1207,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A4:S4 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1433,29 +1435,29 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="11.6071428571429"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="20.25"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="13.5"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="22" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="21" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="21" width="26.0510204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="21" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -1570,10 +1572,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>83</v>
@@ -1587,15 +1589,17 @@
       <c r="G3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="I3" s="31" t="n">
-        <v>1234567890</v>
+        <v>4567890123</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>81</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" s="32" t="n">
         <v>2015</v>
@@ -1610,19 +1614,19 @@
       <c r="P3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="34"/>
       <c r="S3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>83</v>
-      </c>
       <c r="C4" s="29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>83</v>
@@ -1636,11 +1640,9 @@
       <c r="G4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>91</v>
-      </c>
+      <c r="H4" s="30"/>
       <c r="I4" s="31" t="n">
-        <v>3456789012</v>
+        <v>1234567890</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>81</v>
@@ -1661,8 +1663,8 @@
       <c r="P4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="34"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
       <c r="S4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1742,7 +1744,7 @@
         <v>97</v>
       </c>
       <c r="I6" s="31" t="n">
-        <v>4567890123</v>
+        <v>3456789012</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>81</v>
@@ -1789,25 +1791,25 @@
       <c r="S7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="35"/>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
@@ -6232,11 +6234,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N8 N10:N201" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N10:N201" type="list">
       <formula1>"M,F"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O8 O10:O201" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O10:O201" type="list">
       <formula1>"15-20,20-30,30-50,&gt;50"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6250,9 +6252,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId2" display="mike@test.com"/>
+    <hyperlink ref="H3" r:id="rId2" display="adam@test.com"/>
     <hyperlink ref="H5" r:id="rId3" display="smith@test.com"/>
-    <hyperlink ref="H6" r:id="rId4" display="adam@test.com"/>
+    <hyperlink ref="H6" r:id="rId4" display="mike@test.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.748611111111111" header="0.315277777777778" footer="0.315277777777778"/>
@@ -6273,16 +6275,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A4:S4 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.7704081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="42" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
